--- a/SuRGE_Sharepoint/data/CIN/CH4_204_beavercreek/dataSheets/surgeData204.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_204_beavercreek/dataSheets/surgeData204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_204_beavercreek/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="971" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E964C4B5-A1E4-4B73-93D9-062E919A878A}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF366D1-303A-4841-A6DF-F9B1268E4A7B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="201">
   <si>
     <t>lake.id</t>
   </si>
@@ -551,9 +551,6 @@
     <t>TS</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>failed post-deployment cal check</t>
   </si>
   <si>
@@ -612,9 +609,6 @@
   </si>
   <si>
     <t>SG200273</t>
-  </si>
-  <si>
-    <t>U-01</t>
   </si>
   <si>
     <t>U-02</t>
@@ -1323,10 +1317,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1364,7 +1362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1470,7 +1468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1612,7 +1610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1620,75 +1618,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM5" sqref="BM5"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>54</v>
       </c>
@@ -1770,7 +1768,7 @@
       <c r="BO1" s="30"/>
       <c r="BP1" s="30"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1970,42 +1968,120 @@
         <v>53</v>
       </c>
       <c r="BO2" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BP2" s="28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3">
+        <v>41.235810000000001</v>
+      </c>
+      <c r="E3">
+        <v>-83.022220000000004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="27">
+        <v>0.43594907407407407</v>
+      </c>
+      <c r="T3">
+        <v>27.6</v>
+      </c>
+      <c r="U3">
+        <v>35</v>
+      </c>
+      <c r="V3">
+        <v>50</v>
+      </c>
+      <c r="W3">
+        <v>3.6</v>
+      </c>
+      <c r="X3">
+        <v>0.1</v>
+      </c>
+      <c r="Y3">
+        <v>20.63</v>
+      </c>
+      <c r="Z3">
+        <v>10.86</v>
+      </c>
+      <c r="AA3">
+        <v>478</v>
+      </c>
+      <c r="AB3">
+        <v>5.23</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
         <v>170</v>
       </c>
-      <c r="R3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>171</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>172</v>
       </c>
-      <c r="AP3" t="s">
-        <v>173</v>
+      <c r="AQ3">
+        <v>3.1</v>
+      </c>
+      <c r="AR3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AS3">
+        <v>11.37</v>
+      </c>
+      <c r="AT3">
+        <v>478</v>
+      </c>
+      <c r="AU3">
+        <v>5.14</v>
+      </c>
+      <c r="AV3">
+        <v>0.1</v>
+      </c>
+      <c r="AW3">
+        <v>1.6</v>
       </c>
       <c r="BA3">
         <v>1</v>
@@ -2017,22 +2093,22 @@
         <v>1</v>
       </c>
       <c r="BG3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH3" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" t="s">
-        <v>173</v>
-      </c>
       <c r="BJ3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK3" t="s">
         <v>183</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>184</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>185</v>
       </c>
       <c r="BM3">
         <v>1.75556</v>
@@ -2041,81 +2117,84 @@
         <v>409.36</v>
       </c>
       <c r="BO3" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BP3" s="26">
         <v>0.52013888888888882</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>169</v>
       </c>
       <c r="D4">
-        <v>41.235810000000001</v>
+        <v>41.239420000000003</v>
       </c>
       <c r="E4">
-        <v>-83.022220000000004</v>
+        <v>-83.0214</v>
       </c>
       <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="H4" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="26">
-        <v>0.59166666666666667</v>
-      </c>
-      <c r="H4" t="s">
-        <v>175</v>
-      </c>
       <c r="I4" s="26">
-        <v>0.42986111111111108</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>186</v>
       </c>
       <c r="R4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S4" s="27">
-        <v>0.43594907407407407</v>
+        <v>0.5005208333333333</v>
       </c>
       <c r="T4">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="U4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="V4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W4">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="X4">
         <v>0.1</v>
       </c>
       <c r="Y4">
-        <v>20.63</v>
+        <v>20.74</v>
       </c>
       <c r="Z4">
-        <v>10.86</v>
+        <v>10.6</v>
       </c>
       <c r="AA4">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="AB4">
-        <v>5.23</v>
+        <v>10.24</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -2127,34 +2206,34 @@
         <v>1</v>
       </c>
       <c r="AN4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO4" t="s">
         <v>171</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>172</v>
       </c>
-      <c r="AP4" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ4">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="AR4">
-        <v>20.399999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AS4">
-        <v>11.37</v>
+        <v>0.62</v>
       </c>
       <c r="AT4">
-        <v>478</v>
+        <v>0.64</v>
       </c>
       <c r="AU4">
-        <v>5.14</v>
+        <v>5.83</v>
       </c>
       <c r="AV4">
         <v>0.1</v>
       </c>
       <c r="AW4">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="BA4">
         <v>1</v>
@@ -2166,87 +2245,87 @@
         <v>1</v>
       </c>
       <c r="BG4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH4" t="s">
         <v>171</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>172</v>
       </c>
-      <c r="BI4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>169</v>
       </c>
       <c r="D5">
-        <v>41.239420000000003</v>
+        <v>41.240749999999998</v>
       </c>
       <c r="E5">
-        <v>-83.0214</v>
+        <v>-83.017200000000003</v>
       </c>
       <c r="F5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H5" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="26">
-        <v>0.5854166666666667</v>
-      </c>
-      <c r="H5" t="s">
-        <v>175</v>
-      </c>
       <c r="I5" s="26">
-        <v>0.55902777777777779</v>
+        <v>0.37638888888888888</v>
       </c>
       <c r="J5">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>185</v>
       </c>
       <c r="R5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S5" s="27">
-        <v>0.5005208333333333</v>
+        <v>0.38412037037037039</v>
       </c>
       <c r="T5">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="U5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W5">
-        <v>9.1</v>
+        <v>5</v>
       </c>
       <c r="X5">
         <v>0.1</v>
       </c>
       <c r="Y5">
-        <v>20.74</v>
+        <v>20.87</v>
       </c>
       <c r="Z5">
-        <v>10.6</v>
+        <v>10.95</v>
       </c>
       <c r="AA5">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AB5">
-        <v>10.24</v>
+        <v>6.34</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -2258,34 +2337,34 @@
         <v>1</v>
       </c>
       <c r="AN5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO5" t="s">
         <v>171</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>172</v>
       </c>
-      <c r="AP5" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR5">
-        <v>4.0199999999999996</v>
+        <v>20.79</v>
       </c>
       <c r="AS5">
-        <v>0.62</v>
+        <v>10.8</v>
       </c>
       <c r="AT5">
-        <v>0.64</v>
+        <v>470</v>
       </c>
       <c r="AU5">
-        <v>5.83</v>
+        <v>6.29</v>
       </c>
       <c r="AV5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="BA5">
         <v>1</v>
@@ -2297,57 +2376,54 @@
         <v>1</v>
       </c>
       <c r="BG5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH5" t="s">
         <v>171</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>172</v>
       </c>
-      <c r="BI5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>169</v>
       </c>
       <c r="D6">
-        <v>41.240749999999998</v>
+        <v>41.235770000000002</v>
       </c>
       <c r="E6">
-        <v>-83.017200000000003</v>
+        <v>-83.020259999999993</v>
       </c>
       <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.59375</v>
+      </c>
+      <c r="H6" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="26">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="H6" t="s">
-        <v>175</v>
-      </c>
       <c r="I6" s="26">
-        <v>0.37638888888888888</v>
+        <v>0.43541666666666662</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S6" s="27">
-        <v>0.38412037037037039</v>
+        <v>0.44164351851851852</v>
       </c>
       <c r="T6">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="U6">
         <v>40</v>
@@ -2356,28 +2432,28 @@
         <v>40</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="X6">
         <v>0.1</v>
       </c>
       <c r="Y6">
-        <v>20.87</v>
+        <v>20.63</v>
       </c>
       <c r="Z6">
-        <v>10.95</v>
+        <v>10.69</v>
       </c>
       <c r="AA6">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AB6">
-        <v>6.34</v>
+        <v>5.16</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -2389,34 +2465,34 @@
         <v>1</v>
       </c>
       <c r="AN6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO6" t="s">
         <v>171</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>172</v>
       </c>
-      <c r="AP6" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ6">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="AR6">
-        <v>20.79</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="AS6">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="AT6">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AU6">
-        <v>6.29</v>
+        <v>5.08</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="BA6">
         <v>1</v>
@@ -2428,63 +2504,66 @@
         <v>1</v>
       </c>
       <c r="BG6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH6" t="s">
         <v>171</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>172</v>
       </c>
-      <c r="BI6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>169</v>
       </c>
       <c r="D7">
-        <v>41.235770000000002</v>
+        <v>41.236559999999997</v>
       </c>
       <c r="E7">
-        <v>-83.020259999999993</v>
+        <v>-83.020579999999995</v>
       </c>
       <c r="F7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H7" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="26">
-        <v>0.59375</v>
-      </c>
-      <c r="H7" t="s">
-        <v>175</v>
-      </c>
       <c r="I7" s="26">
-        <v>0.43541666666666662</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>188</v>
       </c>
       <c r="R7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S7" s="27">
-        <v>0.44164351851851852</v>
+        <v>0.44814814814814818</v>
       </c>
       <c r="T7">
         <v>27.7</v>
       </c>
       <c r="U7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V7">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="W7">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="X7">
         <v>0.1</v>
@@ -2493,19 +2572,19 @@
         <v>20.63</v>
       </c>
       <c r="Z7">
-        <v>10.69</v>
+        <v>10.86</v>
       </c>
       <c r="AA7">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB7">
-        <v>5.16</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="AC7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -2517,34 +2596,34 @@
         <v>1</v>
       </c>
       <c r="AN7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO7" t="s">
         <v>171</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>172</v>
       </c>
-      <c r="AP7" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ7">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AR7">
-        <v>20.420000000000002</v>
+        <v>20.36</v>
       </c>
       <c r="AS7">
-        <v>11.1</v>
+        <v>10.84</v>
       </c>
       <c r="AT7">
         <v>477</v>
       </c>
       <c r="AU7">
-        <v>5.08</v>
+        <v>5.01</v>
       </c>
       <c r="AV7">
         <v>0</v>
       </c>
       <c r="AW7">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -2556,81 +2635,81 @@
         <v>1</v>
       </c>
       <c r="BG7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH7" t="s">
         <v>171</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>172</v>
       </c>
-      <c r="BI7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
         <v>169</v>
       </c>
       <c r="D8">
-        <v>41.236559999999997</v>
+        <v>41.23883</v>
       </c>
       <c r="E8">
-        <v>-83.020579999999995</v>
+        <v>-83.020390000000006</v>
       </c>
       <c r="F8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="H8" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="26">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="H8" t="s">
-        <v>175</v>
-      </c>
       <c r="I8" s="26">
-        <v>0.44166666666666665</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
         <v>189</v>
       </c>
       <c r="R8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S8" s="27">
-        <v>0.44814814814814818</v>
+        <v>0.50766203703703705</v>
       </c>
       <c r="T8">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="U8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="W8">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="X8">
         <v>0.1</v>
       </c>
       <c r="Y8">
-        <v>20.63</v>
+        <v>20.8</v>
       </c>
       <c r="Z8">
-        <v>10.86</v>
+        <v>10.72</v>
       </c>
       <c r="AA8">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AB8">
-        <v>5.1100000000000003</v>
+        <v>5.92</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2648,34 +2727,34 @@
         <v>1</v>
       </c>
       <c r="AN8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO8" t="s">
         <v>171</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>172</v>
       </c>
-      <c r="AP8" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="AR8">
-        <v>20.36</v>
+        <v>4.5</v>
       </c>
       <c r="AS8">
-        <v>10.84</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AT8">
-        <v>477</v>
+        <v>651</v>
       </c>
       <c r="AU8">
-        <v>5.01</v>
+        <v>1.5</v>
       </c>
       <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="BA8">
         <v>1</v>
@@ -2687,66 +2766,63 @@
         <v>1</v>
       </c>
       <c r="BG8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH8" t="s">
         <v>171</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>172</v>
       </c>
-      <c r="BI8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
         <v>169</v>
       </c>
       <c r="D9">
-        <v>41.23883</v>
+        <v>41.239980000000003</v>
       </c>
       <c r="E9">
-        <v>-83.020390000000006</v>
+        <v>-83.01831</v>
       </c>
       <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="H9" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="26">
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="H9" t="s">
-        <v>175</v>
-      </c>
       <c r="I9" s="26">
-        <v>0.50138888888888888</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="J9">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S9" s="27">
-        <v>0.50766203703703705</v>
+        <v>0.47170138888888885</v>
       </c>
       <c r="T9">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="U9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W9">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="X9">
         <v>0.1</v>
@@ -2755,19 +2831,19 @@
         <v>20.8</v>
       </c>
       <c r="Z9">
-        <v>10.72</v>
+        <v>10.69</v>
       </c>
       <c r="AA9">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AB9">
-        <v>5.92</v>
+        <v>6.39</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2779,34 +2855,34 @@
         <v>1</v>
       </c>
       <c r="AN9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO9" t="s">
         <v>171</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>172</v>
       </c>
-      <c r="AP9" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ9">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AR9">
-        <v>4.5</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="AS9">
-        <v>2.2200000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="AT9">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AU9">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AV9">
         <v>0</v>
       </c>
       <c r="AW9">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2818,84 +2894,84 @@
         <v>1</v>
       </c>
       <c r="BG9" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH9" t="s">
         <v>171</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>172</v>
       </c>
-      <c r="BI9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
         <v>169</v>
       </c>
       <c r="D10">
-        <v>41.239980000000003</v>
+        <v>41.237409999999997</v>
       </c>
       <c r="E10">
-        <v>-83.01831</v>
+        <v>-83.019040000000004</v>
       </c>
       <c r="F10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="H10" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="26">
-        <v>0.56736111111111109</v>
-      </c>
-      <c r="H10" t="s">
-        <v>175</v>
-      </c>
       <c r="I10" s="26">
-        <v>0.46527777777777773</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" s="27">
+        <v>0.45458333333333334</v>
+      </c>
+      <c r="T10">
+        <v>27.8</v>
+      </c>
+      <c r="U10">
+        <v>45</v>
+      </c>
+      <c r="V10">
+        <v>45</v>
+      </c>
+      <c r="W10">
         <v>3</v>
-      </c>
-      <c r="R10" t="s">
-        <v>175</v>
-      </c>
-      <c r="S10" s="27">
-        <v>0.47170138888888885</v>
-      </c>
-      <c r="T10">
-        <v>27.7</v>
-      </c>
-      <c r="U10">
-        <v>48</v>
-      </c>
-      <c r="V10">
-        <v>48</v>
-      </c>
-      <c r="W10">
-        <v>9.1999999999999993</v>
       </c>
       <c r="X10">
         <v>0.1</v>
       </c>
       <c r="Y10">
-        <v>20.8</v>
+        <v>20.62</v>
       </c>
       <c r="Z10">
-        <v>10.69</v>
+        <v>10.96</v>
       </c>
       <c r="AA10">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AB10">
-        <v>6.39</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -2907,34 +2983,34 @@
         <v>1</v>
       </c>
       <c r="AN10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO10" t="s">
         <v>171</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>172</v>
       </c>
-      <c r="AP10" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ10">
-        <v>8.1999999999999993</v>
+        <v>2.5</v>
       </c>
       <c r="AR10">
-        <v>4.8499999999999996</v>
+        <v>20.59</v>
       </c>
       <c r="AS10">
-        <v>2.14</v>
+        <v>10.94</v>
       </c>
       <c r="AT10">
-        <v>649</v>
+        <v>475</v>
       </c>
       <c r="AU10">
-        <v>2.11</v>
+        <v>5</v>
       </c>
       <c r="AV10">
         <v>0</v>
       </c>
       <c r="AW10">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA10">
         <v>1</v>
@@ -2946,84 +3022,87 @@
         <v>1</v>
       </c>
       <c r="BG10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH10" t="s">
         <v>171</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>172</v>
       </c>
-      <c r="BI10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
         <v>169</v>
       </c>
       <c r="D11">
-        <v>41.237409999999997</v>
+        <v>41.24127</v>
       </c>
       <c r="E11">
-        <v>-83.019040000000004</v>
+        <v>-83.017880000000005</v>
       </c>
       <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="H11" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="26">
-        <v>0.6020833333333333</v>
-      </c>
-      <c r="H11" t="s">
-        <v>175</v>
-      </c>
       <c r="I11" s="26">
-        <v>0.44791666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="K11" t="s">
+        <v>185</v>
+      </c>
       <c r="R11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S11" s="27">
-        <v>0.45458333333333334</v>
+        <v>0.39182870370370365</v>
       </c>
       <c r="T11">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="U11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="X11">
         <v>0.1</v>
       </c>
       <c r="Y11">
-        <v>20.62</v>
+        <v>20.82</v>
       </c>
       <c r="Z11">
-        <v>10.96</v>
+        <v>10.99</v>
       </c>
       <c r="AA11">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AB11">
-        <v>5.0199999999999996</v>
+        <v>6.23</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -3035,34 +3114,34 @@
         <v>1</v>
       </c>
       <c r="AN11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO11" t="s">
         <v>171</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>172</v>
       </c>
-      <c r="AP11" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ11">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="AR11">
-        <v>20.59</v>
+        <v>4.78</v>
       </c>
       <c r="AS11">
-        <v>10.94</v>
+        <v>3.14</v>
       </c>
       <c r="AT11">
-        <v>475</v>
+        <v>646</v>
       </c>
       <c r="AU11">
-        <v>5</v>
+        <v>2.41</v>
       </c>
       <c r="AV11">
         <v>0</v>
       </c>
       <c r="AW11">
-        <v>1.1000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="BA11">
         <v>1</v>
@@ -3074,57 +3153,57 @@
         <v>1</v>
       </c>
       <c r="BG11" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH11" t="s">
         <v>171</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>172</v>
       </c>
-      <c r="BI11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>169</v>
       </c>
       <c r="D12">
-        <v>41.24127</v>
+        <v>41.241219999999998</v>
       </c>
       <c r="E12">
-        <v>-83.017880000000005</v>
+        <v>-83.021240000000006</v>
       </c>
       <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="H12" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="26">
-        <v>0.56041666666666667</v>
-      </c>
-      <c r="H12" t="s">
-        <v>175</v>
-      </c>
       <c r="I12" s="26">
-        <v>0.38541666666666669</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S12" s="27">
-        <v>0.39182870370370365</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="T12">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="U12">
         <v>40</v>
@@ -3133,28 +3212,28 @@
         <v>40</v>
       </c>
       <c r="W12">
-        <v>9.1999999999999993</v>
+        <v>3</v>
       </c>
       <c r="X12">
         <v>0.1</v>
       </c>
       <c r="Y12">
-        <v>20.82</v>
+        <v>20.88</v>
       </c>
       <c r="Z12">
-        <v>10.99</v>
+        <v>10.72</v>
       </c>
       <c r="AA12">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AB12">
-        <v>6.23</v>
+        <v>6.47</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AH12">
         <v>1</v>
@@ -3166,34 +3245,34 @@
         <v>1</v>
       </c>
       <c r="AN12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO12" t="s">
         <v>171</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>172</v>
       </c>
-      <c r="AP12" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ12">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
-        <v>4.78</v>
+        <v>20.86</v>
       </c>
       <c r="AS12">
-        <v>3.14</v>
+        <v>10.72</v>
       </c>
       <c r="AT12">
-        <v>646</v>
+        <v>470</v>
       </c>
       <c r="AU12">
-        <v>2.41</v>
+        <v>6.39</v>
       </c>
       <c r="AV12">
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="BA12">
         <v>1</v>
@@ -3205,87 +3284,84 @@
         <v>1</v>
       </c>
       <c r="BG12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH12" t="s">
         <v>171</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>172</v>
       </c>
-      <c r="BI12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>169</v>
       </c>
       <c r="D13">
-        <v>41.241219999999998</v>
+        <v>41.238280000000003</v>
       </c>
       <c r="E13">
-        <v>-83.021240000000006</v>
+        <v>-83.018299999999996</v>
       </c>
       <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="H13" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="26">
-        <v>0.57222222222222219</v>
-      </c>
-      <c r="H13" t="s">
-        <v>175</v>
-      </c>
       <c r="I13" s="26">
-        <v>0.39374999999999999</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="R13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S13" s="27">
-        <v>0.40069444444444446</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="T13">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="U13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="X13">
         <v>0.1</v>
       </c>
       <c r="Y13">
-        <v>20.88</v>
+        <v>20.63</v>
       </c>
       <c r="Z13">
-        <v>10.72</v>
+        <v>10.87</v>
       </c>
       <c r="AA13">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AB13">
-        <v>6.47</v>
+        <v>4.95</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AH13">
         <v>1</v>
@@ -3297,34 +3373,34 @@
         <v>1</v>
       </c>
       <c r="AN13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO13" t="s">
         <v>171</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>172</v>
       </c>
-      <c r="AP13" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ13">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AR13">
-        <v>20.86</v>
+        <v>20.6</v>
       </c>
       <c r="AS13">
-        <v>10.72</v>
+        <v>10.73</v>
       </c>
       <c r="AT13">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AU13">
-        <v>6.39</v>
+        <v>4.92</v>
       </c>
       <c r="AV13">
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="BA13">
         <v>1</v>
@@ -3336,84 +3412,87 @@
         <v>1</v>
       </c>
       <c r="BG13" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH13" t="s">
         <v>171</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>172</v>
       </c>
-      <c r="BI13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
         <v>169</v>
       </c>
       <c r="D14">
-        <v>41.238280000000003</v>
+        <v>41.237740000000002</v>
       </c>
       <c r="E14">
-        <v>-83.018299999999996</v>
+        <v>-83.022760000000005</v>
       </c>
       <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="H14" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="26">
-        <v>0.68402777777777779</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
       <c r="I14" s="26">
-        <v>0.50694444444444442</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>187</v>
       </c>
       <c r="R14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S14" s="27">
-        <v>0.51388888888888895</v>
+        <v>0.42762731481481481</v>
       </c>
       <c r="T14">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="U14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="W14">
-        <v>3.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X14">
         <v>0.1</v>
       </c>
       <c r="Y14">
-        <v>20.63</v>
+        <v>20.53</v>
       </c>
       <c r="Z14">
-        <v>10.87</v>
+        <v>11.08</v>
       </c>
       <c r="AA14">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AB14">
-        <v>4.95</v>
+        <v>5.6</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <v>1</v>
@@ -3425,34 +3504,34 @@
         <v>1</v>
       </c>
       <c r="AN14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO14" t="s">
         <v>171</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>172</v>
       </c>
-      <c r="AP14" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ14">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AR14">
-        <v>20.6</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="AS14">
-        <v>10.73</v>
+        <v>11.34</v>
       </c>
       <c r="AT14">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="AU14">
-        <v>4.92</v>
+        <v>5.34</v>
       </c>
       <c r="AV14">
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA14">
         <v>1</v>
@@ -3464,81 +3543,81 @@
         <v>1</v>
       </c>
       <c r="BG14" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH14" t="s">
         <v>171</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>172</v>
       </c>
-      <c r="BI14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>169</v>
       </c>
       <c r="D15">
-        <v>41.237740000000002</v>
+        <v>41.241199999999999</v>
       </c>
       <c r="E15">
-        <v>-83.022760000000005</v>
+        <v>-83.02319</v>
       </c>
       <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="H15" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="26">
-        <v>0.58958333333333335</v>
-      </c>
-      <c r="H15" t="s">
-        <v>175</v>
-      </c>
       <c r="I15" s="26">
-        <v>0.41944444444444445</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="J15">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>185</v>
       </c>
       <c r="R15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S15" s="27">
-        <v>0.42762731481481481</v>
+        <v>0.40983796296296293</v>
       </c>
       <c r="T15">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="U15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W15">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X15">
         <v>0.1</v>
       </c>
       <c r="Y15">
-        <v>20.53</v>
+        <v>20.57</v>
       </c>
       <c r="Z15">
-        <v>11.08</v>
+        <v>10.72</v>
       </c>
       <c r="AA15">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AB15">
-        <v>5.6</v>
+        <v>6.87</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -3556,34 +3635,34 @@
         <v>1</v>
       </c>
       <c r="AN15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO15" t="s">
         <v>171</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>172</v>
       </c>
-      <c r="AP15" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AR15">
-        <v>20.260000000000002</v>
+        <v>20.59</v>
       </c>
       <c r="AS15">
-        <v>11.34</v>
+        <v>10.74</v>
       </c>
       <c r="AT15">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AU15">
-        <v>5.34</v>
+        <v>6.69</v>
       </c>
       <c r="AV15">
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="BA15">
         <v>1</v>
@@ -3595,57 +3674,57 @@
         <v>1</v>
       </c>
       <c r="BG15" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH15" t="s">
         <v>171</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>172</v>
       </c>
-      <c r="BI15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>169</v>
       </c>
       <c r="D16">
-        <v>41.241199999999999</v>
+        <v>41.239069999999998</v>
       </c>
       <c r="E16">
-        <v>-83.02319</v>
+        <v>-83.023420000000002</v>
       </c>
       <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="H16" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="26">
-        <v>0.57916666666666672</v>
-      </c>
-      <c r="H16" t="s">
-        <v>175</v>
-      </c>
       <c r="I16" s="26">
-        <v>0.40347222222222223</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S16" s="27">
-        <v>0.40983796296296293</v>
+        <v>0.41841435185185188</v>
       </c>
       <c r="T16">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="U16">
         <v>40</v>
@@ -3654,22 +3733,22 @@
         <v>40</v>
       </c>
       <c r="W16">
-        <v>4.0999999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="X16">
         <v>0.1</v>
       </c>
       <c r="Y16">
-        <v>20.57</v>
+        <v>20.63</v>
       </c>
       <c r="Z16">
-        <v>10.72</v>
+        <v>10.69</v>
       </c>
       <c r="AA16">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="AB16">
-        <v>6.87</v>
+        <v>7.51</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -3687,34 +3766,34 @@
         <v>1</v>
       </c>
       <c r="AN16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO16" t="s">
         <v>171</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>172</v>
       </c>
-      <c r="AP16" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ16">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="AR16">
-        <v>20.59</v>
+        <v>4.95</v>
       </c>
       <c r="AS16">
-        <v>10.74</v>
+        <v>2.35</v>
       </c>
       <c r="AT16">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AU16">
-        <v>6.69</v>
+        <v>3.8</v>
       </c>
       <c r="AV16">
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="BA16">
         <v>1</v>
@@ -3726,87 +3805,84 @@
         <v>1</v>
       </c>
       <c r="BG16" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH16" t="s">
         <v>171</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>172</v>
       </c>
-      <c r="BI16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
         <v>169</v>
       </c>
       <c r="D17">
-        <v>41.239069999999998</v>
+        <v>41.238819999999997</v>
       </c>
       <c r="E17">
-        <v>-83.023420000000002</v>
+        <v>-83.017910000000001</v>
       </c>
       <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H17" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="26">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="H17" t="s">
-        <v>175</v>
-      </c>
       <c r="I17" s="26">
-        <v>0.41250000000000003</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="R17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S17" s="27">
-        <v>0.41841435185185188</v>
+        <v>0.51961805555555551</v>
       </c>
       <c r="T17">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="U17">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V17">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W17">
-        <v>8.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="X17">
         <v>0.1</v>
       </c>
       <c r="Y17">
-        <v>20.63</v>
+        <v>20.65</v>
       </c>
       <c r="Z17">
-        <v>10.69</v>
+        <v>10.9</v>
       </c>
       <c r="AA17">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="AB17">
-        <v>7.51</v>
+        <v>4.91</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AH17">
         <v>1</v>
@@ -3818,34 +3894,34 @@
         <v>1</v>
       </c>
       <c r="AN17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO17" t="s">
         <v>171</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>172</v>
       </c>
-      <c r="AP17" t="s">
-        <v>173</v>
-      </c>
       <c r="AQ17">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AR17">
-        <v>4.95</v>
+        <v>4.43</v>
       </c>
       <c r="AS17">
-        <v>2.35</v>
+        <v>3.9</v>
       </c>
       <c r="AT17">
-        <v>461</v>
+        <v>649</v>
       </c>
       <c r="AU17">
-        <v>3.8</v>
+        <v>0.73</v>
       </c>
       <c r="AV17">
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="BA17">
         <v>1</v>
@@ -3857,141 +3933,13 @@
         <v>1</v>
       </c>
       <c r="BG17" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH17" t="s">
         <v>171</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>172</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18">
-        <v>41.238819999999997</v>
-      </c>
-      <c r="E18">
-        <v>-83.017910000000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="H18" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
-      <c r="R18" t="s">
-        <v>175</v>
-      </c>
-      <c r="S18" s="27">
-        <v>0.51961805555555551</v>
-      </c>
-      <c r="T18">
-        <v>28.1</v>
-      </c>
-      <c r="U18">
-        <v>45</v>
-      </c>
-      <c r="V18">
-        <v>45</v>
-      </c>
-      <c r="W18">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="X18">
-        <v>0.1</v>
-      </c>
-      <c r="Y18">
-        <v>20.65</v>
-      </c>
-      <c r="Z18">
-        <v>10.9</v>
-      </c>
-      <c r="AA18">
-        <v>474</v>
-      </c>
-      <c r="AB18">
-        <v>4.91</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>1.3</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ18">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AR18">
-        <v>4.43</v>
-      </c>
-      <c r="AS18">
-        <v>3.9</v>
-      </c>
-      <c r="AT18">
-        <v>649</v>
-      </c>
-      <c r="AU18">
-        <v>0.73</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>1.9</v>
-      </c>
-      <c r="BA18">
-        <v>1</v>
-      </c>
-      <c r="BB18">
-        <v>1</v>
-      </c>
-      <c r="BC18">
-        <v>1</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>171</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4017,14 +3965,14 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4035,7 +3983,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +3994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4057,7 +4005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -4068,7 +4016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4079,7 +4027,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4090,7 +4038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4101,7 +4049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4112,7 +4060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4134,7 +4082,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4145,7 +4093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4156,7 +4104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4167,7 +4115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4175,7 +4123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4186,7 +4134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4194,7 +4142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4205,7 +4153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4213,7 +4161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4224,7 +4172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4235,7 +4183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4246,7 +4194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4257,7 +4205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4268,7 +4216,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4279,7 +4227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4290,7 +4238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4301,7 +4249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4312,7 +4260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4323,7 +4271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4334,7 +4282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -4345,7 +4293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4356,7 +4304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4364,7 +4312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4372,7 +4320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4380,7 +4328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4388,7 +4336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -4396,7 +4344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4404,7 +4352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>158</v>
       </c>
@@ -4412,7 +4360,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -4420,7 +4368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -4428,7 +4376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -4436,7 +4384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -4444,7 +4392,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>146</v>
       </c>
@@ -4452,7 +4400,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -4463,7 +4411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4474,7 +4422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4485,7 +4433,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4496,7 +4444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4507,7 +4455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -4518,7 +4466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4529,7 +4477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4537,7 +4485,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4545,7 +4493,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4553,7 +4501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -4561,7 +4509,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -4569,7 +4517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4577,7 +4525,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -4585,7 +4533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -4593,7 +4541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -4601,7 +4549,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -4609,7 +4557,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -4617,7 +4565,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -4625,7 +4573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4636,7 +4584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4647,7 +4595,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4658,7 +4606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4669,7 +4617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4693,17 +4641,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
@@ -4719,7 +4667,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4748,12 +4696,12 @@
         <v>127</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>160</v>
       </c>
@@ -4764,7 +4712,7 @@
         <v>0.1</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <v>26.7</v>
@@ -4782,7 +4730,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>160</v>
       </c>
@@ -4793,7 +4741,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>27.1</v>
@@ -4811,7 +4759,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>160</v>
       </c>
@@ -4822,7 +4770,7 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5">
         <v>27.2</v>
@@ -4840,7 +4788,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>160</v>
       </c>
@@ -4851,7 +4799,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4869,7 +4817,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>160</v>
       </c>
@@ -4880,7 +4828,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>20.3</v>
@@ -4898,7 +4846,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>160</v>
       </c>
@@ -4909,7 +4857,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>20.399999999999999</v>
@@ -4944,14 +4892,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4962,7 +4910,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +4921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4984,7 +4932,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4995,7 +4943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -5006,7 +4954,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -5017,7 +4965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -5025,7 +4973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>125</v>
       </c>
@@ -5036,7 +4984,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>126</v>
       </c>
@@ -5047,7 +4995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>127</v>
       </c>
@@ -5073,8 +5021,45 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5543,45 +5528,8 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5593,18 +5541,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC9E38E-5733-4F73-8A8F-C76E552A10B4}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5613,6 +5549,38 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC9E38E-5733-4F73-8A8F-C76E552A10B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuRGE_Sharepoint/data/CIN/CH4_204_beavercreek/dataSheets/surgeData204.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_204_beavercreek/dataSheets/surgeData204.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_204_beavercreek/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_204_beavercreek/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="972" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF366D1-303A-4841-A6DF-F9B1268E4A7B}"/>
+  <xr:revisionPtr revIDLastSave="973" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836C0D9B-23AB-48BF-B4F7-61295D2A37FF}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22980" yWindow="0" windowWidth="23196" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1317,10 +1317,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1621,8 +1617,8 @@
   <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+      <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ4" sqref="BJ4:BL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2101,15 +2097,6 @@
       <c r="BI3" t="s">
         <v>172</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>184</v>
-      </c>
       <c r="BM3">
         <v>1.75556</v>
       </c>
@@ -2252,6 +2239,15 @@
       </c>
       <c r="BI4" t="s">
         <v>172</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.3">
@@ -5012,57 +5008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5527,34 +5472,63 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AC9E38E-5733-4F73-8A8F-C76E552A10B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5577,6 +5551,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
